--- a/src/main/java/Excel_FileReader/Testdata.xlsx
+++ b/src/main/java/Excel_FileReader/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16185" windowHeight="3720"/>
   </bookViews>
   <sheets>
     <sheet name="Tarlesh" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Trisha" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:N11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Password</t>
   </si>
@@ -58,6 +59,15 @@
   </si>
   <si>
     <t>Jaya</t>
+  </si>
+  <si>
+    <t>Trisha</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>safari</t>
   </si>
 </sst>
 </file>
@@ -409,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,6 +487,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/src/main/java/Excel_FileReader/Testdata.xlsx
+++ b/src/main/java/Excel_FileReader/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16185" windowHeight="3720"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="27075" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="Tarlesh" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Trisha" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:N11"/>
+  <oleSize ref="A1:Y29"/>
 </workbook>
 </file>
 
@@ -422,7 +422,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
